--- a/StructureDefinition-example-capability-statement.xlsx
+++ b/StructureDefinition-example-capability-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T10:55:58+00:00</t>
+    <t>2025-10-15T11:05:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
